--- a/data.xlsx
+++ b/data.xlsx
@@ -14,27 +14,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
-  <x:si>
-    <x:t>foo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>poo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 26 2017 16:10:06 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72" count="72">
+  <x:si>
+    <x:t>city</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contactDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skillName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>primarySkillLvl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>candidateName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belarus, Minsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 31 2017 08:15:31 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Android</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dkjd@yandex.by</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pool</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kristy kostukevich</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USA, Walnut Creek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 31 2017 07:19:33 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.NET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adress@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iosjcnsoia aosichnao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USA, Boulder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 31 2017 07:17:41 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vasya@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vasya Alekseev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Jul 30 2017 11:48:36 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kot@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Helen Lisok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 29 2017 10:31:11 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C++</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maxaderiha@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maxim Aderiha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 29 2017 10:27:21 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kevin.wise77@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kevin Wise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 29 2017 10:26:34 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andy.belous77@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Artem Belous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 29 2017 10:25:50 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Belous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 08:51:23 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chira_sobaka@mail.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Misha  Chirich</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ukraine, Kharkov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 08:23:36 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sobaca@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vasya Sobakov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 08:13:44 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>secTHATMAILmail@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>someone isbehind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 05:43:02 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>masha@yandex.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Russia, Chelyabinsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 05:41:48 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>git@gmial.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ivan Pupkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Poland, Warsaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 05:24:47 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Максим Адериха</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belarus, Vitebsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 05:03:09 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shavel.ilya@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Илья Шавель</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 04:59:56 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zima_04@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Владислав Зинчук</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 28 2017 04:55:49 GMT+0300 (Russia TZ 2 Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>titivuk@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Konstantsin Tatarchuk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -397,7 +592,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -410,19 +605,405 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="E7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
